--- a/checks/results/HLR_results_4_>1_lg_families_tPBC.xlsx
+++ b/checks/results/HLR_results_4_>1_lg_families_tPBC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Model Level</t>
   </si>
@@ -85,61 +85,85 @@
     <t>['N1ratio-ArgsPreds']</t>
   </si>
   <si>
-    <t>['N1ratio-ArgsPreds', 'Nlen_freq', 'Vlen_freq']</t>
-  </si>
-  <si>
-    <t>['N1ratio-ArgsPreds', 'Nlen_freq', 'Vlen_freq', 'Fam_class']</t>
-  </si>
-  <si>
-    <t>{'const': 0.7273505426173327, 'N1ratio-ArgsPreds': -0.20746099596041473}</t>
-  </si>
-  <si>
-    <t>{'const': 0.6812200780675908, 'N1ratio-ArgsPreds': -0.20114088205011404, 'Nlen_freq': -0.05429947441504576, 'Vlen_freq': 0.06070144566201066}</t>
-  </si>
-  <si>
-    <t>{'const': 0.6822935881416353, 'N1ratio-ArgsPreds': -0.2117012587726652, 'Nlen_freq': -0.05267806990364435, 'Vlen_freq': 0.05630330449371877, 'Fam_class': 0.0010303690753934653}</t>
-  </si>
-  <si>
-    <t>{'const': 9.298079447855262e-161, 'N1ratio-ArgsPreds': 1.867790180997848e-109}</t>
-  </si>
-  <si>
-    <t>{'const': 9.720670360193418e-37, 'N1ratio-ArgsPreds': 2.908138232849603e-104, 'Nlen_freq': 7.0931992917712525e-06, 'Vlen_freq': 1.3017900558265412e-09}</t>
-  </si>
-  <si>
-    <t>{'const': 3.3434679087431457e-37, 'N1ratio-ArgsPreds': 1.299525909620344e-106, 'Nlen_freq': 1.1937719642715711e-05, 'Vlen_freq': 1.7981758117616405e-08, 'Fam_class': 3.789274004954226e-05}</t>
-  </si>
-  <si>
-    <t>{'N1ratio-ArgsPreds': -0.5322141056490416}</t>
-  </si>
-  <si>
-    <t>{'N1ratio-ArgsPreds': -0.5160006783645579, 'Nlen_freq': -0.1712427661917727, 'Vlen_freq': 0.23321296999885918}</t>
-  </si>
-  <si>
-    <t>{'N1ratio-ArgsPreds': -0.5430919464204673, 'Nlen_freq': -0.16612938716482462, 'Vlen_freq': 0.21631545539858454, 'Fam_class': 0.09365459967293509}</t>
-  </si>
-  <si>
-    <t>{'N1ratio-ArgsPreds': -0.5322141056490419}</t>
-  </si>
-  <si>
-    <t>{'N1ratio-ArgsPreds': -0.5214801502160139, 'Nlen_freq': -0.11627957871488868, 'Vlen_freq': 0.15665471269160944}</t>
-  </si>
-  <si>
-    <t>{'N1ratio-ArgsPreds': -0.5266759001689547, 'Nlen_freq': -0.11343276795632791, 'Vlen_freq': 0.14555004445042463, 'Fam_class': 0.10676914901025716}</t>
-  </si>
-  <si>
-    <t>{'N1ratio-ArgsPreds': -0.5109009144324602, 'Nlen_freq': -0.0978681855226855, 'Vlen_freq': 0.13259309549316356}</t>
-  </si>
-  <si>
-    <t>{'N1ratio-ArgsPreds': -0.5149714048867648, 'Nlen_freq': -0.09489494858155045, 'Vlen_freq': 0.1222797086737405, 'Fam_class': 0.08925402363778685}</t>
-  </si>
-  <si>
-    <t>{'N1ratio-ArgsPreds': 28.325185425180955}</t>
-  </si>
-  <si>
-    <t>{'N1ratio-ArgsPreds': 26.101974436792403, 'Nlen_freq': 0.9578181737502788, 'Vlen_freq': 1.7580928972459193}</t>
-  </si>
-  <si>
-    <t>{'N1ratio-ArgsPreds': 26.51955478510483, 'Nlen_freq': 0.9005051266295104, 'Vlen_freq': 1.4952327153334846, 'Fam_class': 0.7966280735534615}</t>
+    <t>['N1ratio-ArgsPreds', 'latitude', 'longitude', 'Macro_class']</t>
+  </si>
+  <si>
+    <t>['N1ratio-ArgsPreds', 'latitude', 'longitude', 'Macro_class', 'Fam_class']</t>
+  </si>
+  <si>
+    <t>['N1ratio-ArgsPreds', 'latitude', 'longitude', 'Macro_class', 'Fam_class', 'Nlen_freq', 'Vlen_freq']</t>
+  </si>
+  <si>
+    <t>{'const': 0.7273505426173328, 'N1ratio-ArgsPreds': -0.20746099596041467}</t>
+  </si>
+  <si>
+    <t>{'const': 0.5931981450813734, 'N1ratio-ArgsPreds': -0.2114124485447942, 'latitude': 0.003816217542651418, 'longitude': 3.365692632155995e-06, 'Macro_class': 0.0472682395825669}</t>
+  </si>
+  <si>
+    <t>{'const': 0.5981575686294853, 'N1ratio-ArgsPreds': -0.2088218582386414, 'latitude': 0.0038290971737104007, 'longitude': -2.601538253564059e-05, 'Macro_class': 0.047902502946424536, 'Fam_class': -0.00025385066701125153}</t>
+  </si>
+  <si>
+    <t>{'const': 0.6458937585888933, 'N1ratio-ArgsPreds': -0.20114649205907856, 'latitude': 0.003925164521142258, 'longitude': -0.00012710146272285695, 'Macro_class': 0.042297027722486495, 'Fam_class': -0.0004990434845918955, 'Nlen_freq': -0.052682622445800006, 'Vlen_freq': 0.04807378180068025}</t>
+  </si>
+  <si>
+    <t>{'const': 9.29807944785156e-161, 'N1ratio-ArgsPreds': 1.867790180997848e-109}</t>
+  </si>
+  <si>
+    <t>{'const': 2.3051876259872222e-98, 'N1ratio-ArgsPreds': 4.246817052101905e-110, 'latitude': 3.5475411217226984e-14, 'longitude': 0.9749639974986837, 'Macro_class': 2.3014751017305035e-22}</t>
+  </si>
+  <si>
+    <t>{'const': 6.886913643281096e-97, 'N1ratio-ArgsPreds': 1.2708412231894904e-100, 'latitude': 2.9775186991079475e-14, 'longitude': 0.8148211866376162, 'Macro_class': 1.462120673649917e-22, 'Fam_class': 0.3097802981023895}</t>
+  </si>
+  <si>
+    <t>{'const': 3.7954928616464696e-35, 'N1ratio-ArgsPreds': 2.3585894850431156e-92, 'latitude': 5.012573281164161e-15, 'longitude': 0.2615640702704981, 'Macro_class': 3.157615783892136e-16, 'Fam_class': 0.050688603012116876, 'Nlen_freq': 1.4809540184846515e-05, 'Vlen_freq': 5.002701251435402e-06}</t>
+  </si>
+  <si>
+    <t>{'N1ratio-ArgsPreds': -0.5322141056490415}</t>
+  </si>
+  <si>
+    <t>{'N1ratio-ArgsPreds': -0.5423510414787115, 'latitude': 0.16935299016552596, 'longitude': 0.0007150530267172963, 'Macro_class': 0.21312175304514197}</t>
+  </si>
+  <si>
+    <t>{'N1ratio-ArgsPreds': -0.5357052201930793, 'latitude': 0.1699245519299405, 'longitude': -0.005527057891617924, 'Macro_class': 0.21598150244963432, 'Fam_class': -0.022839054480706274}</t>
+  </si>
+  <si>
+    <t>{'N1ratio-ArgsPreds': -0.5160150701102927, 'latitude': 0.17418775033596007, 'longitude': -0.02700314483618067, 'Macro_class': 0.19070768821566006, 'Fam_class': -0.04489915849750601, 'Nlen_freq': -0.16614374439240998, 'Vlen_freq': 0.18469789822205665}</t>
+  </si>
+  <si>
+    <t>{'N1ratio-ArgsPreds': -0.5322141056490425}</t>
+  </si>
+  <si>
+    <t>{'N1ratio-ArgsPreds': -0.5340076948730278, 'latitude': 0.1950173048898277, 'longitude': 0.0008156276106602306, 'Macro_class': 0.248825501044787}</t>
+  </si>
+  <si>
+    <t>{'N1ratio-ArgsPreds': -0.5137884196150758, 'latitude': 0.1956551665124548, 'longitude': -0.0060889967102395175, 'Macro_class': 0.2500477546035998, 'Fam_class': -0.026401283593912573}</t>
+  </si>
+  <si>
+    <t>{'N1ratio-ArgsPreds': -0.49509730357606296, 'latitude': 0.2015222965011221, 'longitude': -0.02920169921365487, 'Macro_class': 0.21009867671913646, 'Fam_class': -0.050804707075893005, 'Nlen_freq': -0.11233044011922146, 'Vlen_freq': 0.11833592707356501}</t>
+  </si>
+  <si>
+    <t>{'N1ratio-ArgsPreds': -0.5322141056490424}</t>
+  </si>
+  <si>
+    <t>{'N1ratio-ArgsPreds': -0.5118082301460207, 'latitude': 0.16112230744976175, 'longitude': 0.0006609292242517679, 'Macro_class': 0.2081787909487982}</t>
+  </si>
+  <si>
+    <t>{'N1ratio-ArgsPreds': -0.48512153557829313, 'latitude': 0.16161389278878238, 'longitude': -0.004932479306926587, 'Macro_class': 0.20919646107349513, 'Fam_class': -0.021393800127557823}</t>
+  </si>
+  <si>
+    <t>{'N1ratio-ArgsPreds': -0.45819251560883245, 'latitude': 0.1654328660103413, 'longitude': -0.023490343970074736, 'Macro_class': 0.1727915527460518, 'Fam_class': -0.0409035651729574, 'Nlen_freq': -0.09089728042639116, 'Vlen_freq': 0.09582413573929108}</t>
+  </si>
+  <si>
+    <t>{'N1ratio-ArgsPreds': 28.325185425181004}</t>
+  </si>
+  <si>
+    <t>{'N1ratio-ArgsPreds': 26.194766444520212, 'latitude': 2.596039795793555, 'longitude': 4.368274394700436e-05, 'Macro_class': 4.333840900090342}</t>
+  </si>
+  <si>
+    <t>{'N1ratio-ArgsPreds': 23.534290428184114, 'latitude': 2.611905034234405, 'longitude': 0.002432935211325898, 'Macro_class': 4.376315932567437, 'Fam_class': 0.04576946838978931}</t>
+  </si>
+  <si>
+    <t>{'N1ratio-ArgsPreds': 20.994038135995016, 'latitude': 2.7368033156395537, 'longitude': 0.05517962598324265, 'Macro_class': 2.9856920700391596, 'Fam_class': 0.16731016438583737, 'Nlen_freq': 0.8262315588913993, 'Vlen_freq': 0.9182264990182081}</t>
   </si>
 </sst>
 </file>
@@ -497,7 +521,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:W5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -594,7 +618,7 @@
         <v>0.2832518542518089</v>
       </c>
       <c r="H2">
-        <v>586.4622799559511</v>
+        <v>586.4622799559509</v>
       </c>
       <c r="I2">
         <v>1.867790180999188E-109</v>
@@ -606,7 +630,7 @@
         <v>232.1830417227456</v>
       </c>
       <c r="L2">
-        <v>65.76627709379281</v>
+        <v>65.76627709379278</v>
       </c>
       <c r="M2">
         <v>0.1121406769736879</v>
@@ -615,22 +639,22 @@
         <v>0.1563522166483135</v>
       </c>
       <c r="O2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="R2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -647,61 +671,61 @@
         <v>1486</v>
       </c>
       <c r="E3">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G3">
-        <v>0.3011820616713913</v>
+        <v>0.343362345027855</v>
       </c>
       <c r="H3">
-        <v>212.9080126671045</v>
+        <v>193.6073986679248</v>
       </c>
       <c r="I3">
-        <v>7.969533147923995E-115</v>
+        <v>1.370015064749427E-133</v>
       </c>
       <c r="J3">
-        <v>162.2536745315544</v>
+        <v>152.4601280411233</v>
       </c>
       <c r="K3">
         <v>232.1830417227456</v>
       </c>
       <c r="L3">
-        <v>23.30978906373039</v>
+        <v>19.93072842040556</v>
       </c>
       <c r="M3">
-        <v>0.1094829112898478</v>
+        <v>0.1029440432418118</v>
       </c>
       <c r="N3">
         <v>0.1563522166483135</v>
       </c>
       <c r="O3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="S3" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="T3" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="U3">
-        <v>0.0179302074195824</v>
+        <v>0.06011049077604613</v>
       </c>
       <c r="V3">
-        <v>19.01251094052895</v>
+        <v>45.19165994884488</v>
       </c>
       <c r="W3">
-        <v>7.032709519519926E-09</v>
+        <v>6.069955880460317E-28</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -718,61 +742,132 @@
         <v>1486</v>
       </c>
       <c r="E4">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="F4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G4">
-        <v>0.3091483424069261</v>
+        <v>0.3438200397117536</v>
       </c>
       <c r="H4">
-        <v>165.6827084629867</v>
+        <v>155.0957632262547</v>
       </c>
       <c r="I4">
-        <v>2.6670569477707E-117</v>
+        <v>1.21472196063553E-132</v>
       </c>
       <c r="J4">
-        <v>160.4040392391606</v>
+        <v>152.3538590972354</v>
       </c>
       <c r="K4">
         <v>232.1830417227456</v>
       </c>
       <c r="L4">
-        <v>17.94475062089624</v>
+        <v>15.96583652510203</v>
       </c>
       <c r="M4">
-        <v>0.1083079265625663</v>
+        <v>0.1029417966873212</v>
       </c>
       <c r="N4">
         <v>0.1563522166483135</v>
       </c>
       <c r="O4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q4" t="s">
+        <v>36</v>
+      </c>
+      <c r="R4" t="s">
+        <v>40</v>
+      </c>
+      <c r="S4" t="s">
+        <v>44</v>
+      </c>
+      <c r="T4" t="s">
+        <v>48</v>
+      </c>
+      <c r="U4">
+        <v>0.0004576946838985574</v>
+      </c>
+      <c r="V4">
+        <v>1.032320663789096</v>
+      </c>
+      <c r="W4">
+        <v>0.3097802981029886</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5">
+        <v>1486</v>
+      </c>
+      <c r="E5">
+        <v>1478</v>
+      </c>
+      <c r="F5">
+        <v>7</v>
+      </c>
+      <c r="G5">
+        <v>0.3534650481512172</v>
+      </c>
+      <c r="H5">
+        <v>115.4332336610335</v>
+      </c>
+      <c r="I5">
+        <v>3.578062400881211E-135</v>
+      </c>
+      <c r="J5">
+        <v>150.1144517003193</v>
+      </c>
+      <c r="K5">
+        <v>232.1830417227456</v>
+      </c>
+      <c r="L5">
+        <v>11.72408428891805</v>
+      </c>
+      <c r="M5">
+        <v>0.1015659348446003</v>
+      </c>
+      <c r="N5">
+        <v>0.1563522166483135</v>
+      </c>
+      <c r="O5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" t="s">
         <v>33</v>
       </c>
-      <c r="R4" t="s">
-        <v>36</v>
-      </c>
-      <c r="S4" t="s">
-        <v>38</v>
-      </c>
-      <c r="T4" t="s">
+      <c r="Q5" t="s">
+        <v>37</v>
+      </c>
+      <c r="R5" t="s">
         <v>41</v>
       </c>
-      <c r="U4">
-        <v>0.007966280735534848</v>
-      </c>
-      <c r="V4">
-        <v>17.07756164388682</v>
-      </c>
-      <c r="W4">
-        <v>3.789274004944213E-05</v>
+      <c r="S5" t="s">
+        <v>45</v>
+      </c>
+      <c r="T5" t="s">
+        <v>49</v>
+      </c>
+      <c r="U5">
+        <v>0.009645008439463587</v>
+      </c>
+      <c r="V5">
+        <v>11.02440203175693</v>
+      </c>
+      <c r="W5">
+        <v>1.768170994010267E-05</v>
       </c>
     </row>
   </sheetData>
